--- a/medicine/Mort/Panthéon_des_Galiciens_illustres/Panthéon_des_Galiciens_illustres.xlsx
+++ b/medicine/Mort/Panthéon_des_Galiciens_illustres/Panthéon_des_Galiciens_illustres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_des_Galiciens_illustres</t>
+          <t>Panthéon_des_Galiciens_illustres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Panthéon des Galiciens illustres (Panteón de Galegos Ilustres) se trouve dans l'église du Convento de San Domingos de Bonaval à Saint-Jacques-de-Compostelle. L'ensemble de l'église est considéré comme étant le Panthéon, mais seules les chapelles de la Visitation (ou celle de San Domingos de Suriano) et du Saint Christ sont en réalité utilisées. Y reposent des personnes marquantes du peuple galicien, comme la poétesse Rosalía de Castro, le politicien régionaliste Alfredo Brañas, le sculpteur Francisco Asorey, le poète Ramón Cabanillas, le géographe Domingo Fontán et l'artiste et nationaliste Alfonso Daniel Rodríguez Castelao.
 L'idée a été proposée initialement par les galiciens émigrés à Cuba.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panth%C3%A9on_des_Galiciens_illustres</t>
+          <t>Panthéon_des_Galiciens_illustres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole conserve les restes de plusieurs personnalités galiciennes d'importance. La première à y être transférée est Rosalía de Castro, le 25 mai 1891, six ans après sa mort, depuis le cimetière de Adina, église Santa María de Iria Flavia. Son mausolée est une œuvre de Jesús Landeira Iglesias.
 Le transfert suivant est celui des restes de Alfredo Brañas, en 1906, placé au devant de la tombe de Rosalia, avec l'intention de confirmer le projet du mausolée des célébrités de Galice. En 1961 est enterré le sculpteur Francisco Asorey, directement dans le Panthéon, et le 12 août 1967, Ramón Cabanillas, est transféré du cimetière de Cambados.
